--- a/REGULAR/OJT/ALCANTARA, RIZALINA.xlsx
+++ b/REGULAR/OJT/ALCANTARA, RIZALINA.xlsx
@@ -1732,6 +1732,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1767,9 +1770,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2219,7 +2219,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2262,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2326,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2386,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2452,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2515,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2613,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2672,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2737,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2780,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2855,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,7 +3041,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3107,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3165,7 +3165,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3231,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3287,7 +3287,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3362,7 +3362,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3405,7 +3405,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3471,7 +3471,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,7 +3527,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3625,7 +3625,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3688,7 +3688,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4133,12 +4133,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K591"/>
+  <dimension ref="A2:M591"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A565" activePane="bottomLeft"/>
-      <selection activeCell="C11" sqref="C11"/>
-      <selection pane="bottomLeft" activeCell="K587" sqref="K587"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A565"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="G585" sqref="G585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,64 +4156,64 @@
     <col min="11" max="11" width="33.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="60"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4221,7 +4221,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4234,24 +4234,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4295,7 +4295,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>8.8649999999998386</v>
+        <v>11.364999999999839</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4305,12 +4305,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.875</v>
+        <v>47.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4332,7 +4333,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>44</v>
       </c>
@@ -4352,7 +4353,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>46</v>
       </c>
@@ -4372,7 +4373,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>48</v>
       </c>
@@ -4398,7 +4399,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34274</v>
       </c>
@@ -4424,7 +4425,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34304</v>
       </c>
@@ -4450,7 +4451,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>49</v>
       </c>
@@ -20357,15 +20358,17 @@
       <c r="B586" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="C586" s="13"/>
+      <c r="C586" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D586" s="39">
         <v>1</v>
       </c>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G586" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
@@ -20401,13 +20404,15 @@
         <v>45261</v>
       </c>
       <c r="B588" s="20"/>
-      <c r="C588" s="13"/>
+      <c r="C588" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D588" s="39"/>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
-      <c r="G588" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G588" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H588" s="39"/>
       <c r="I588" s="9"/>
@@ -20451,7 +20456,7 @@
       <c r="K590" s="20"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" s="66"/>
+      <c r="A591" s="54"/>
       <c r="B591" s="15"/>
       <c r="C591" s="41"/>
       <c r="D591" s="42"/>
@@ -20530,17 +20535,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -20621,12 +20626,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/OJT/ALCANTARA, RIZALINA.xlsx
+++ b/REGULAR/OJT/ALCANTARA, RIZALINA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7246B1E9-26AB-497D-A6FB-6F5F37CD2102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="439">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1339,12 +1340,24 @@
   </si>
   <si>
     <t>12/26-29/2023</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>TERMINAL</t>
+  </si>
+  <si>
+    <t>2/7,8,9/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1575,7 +1588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1770,6 +1783,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2219,7 +2235,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2278,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2342,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2402,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2468,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2531,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2629,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2688,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2753,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2796,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2871,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,7 +3057,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3123,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3165,7 +3181,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3247,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3287,7 +3303,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3362,7 +3378,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3405,7 +3421,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3471,7 +3487,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,7 +3543,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3625,7 +3641,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3688,7 +3704,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3737,7 +3753,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3754,26 +3770,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K591" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K591"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K592" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K592" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3785,13 +3801,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3800,14 +3816,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4111,7 +4127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4121,7 +4137,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4129,34 +4145,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M591"/>
+  <dimension ref="A2:M592"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A565"/>
-      <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="G585" sqref="G585"/>
+      <pane ySplit="3696" topLeftCell="A580" activePane="bottomLeft"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="K592" sqref="K592"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="33.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4177,11 +4193,13 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="56" t="s">
+        <v>435</v>
+      </c>
       <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -4195,16 +4213,20 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="56" t="s">
+        <v>436</v>
+      </c>
       <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="61" t="s">
+        <v>437</v>
+      </c>
       <c r="G4" s="61"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -4213,7 +4235,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4221,7 +4243,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4234,7 +4256,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -4251,7 +4273,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4286,7 +4308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4295,7 +4317,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.364999999999839</v>
+        <v>9.6149999999998386</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4305,13 +4327,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47.375</v>
+        <v>48.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="43"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4333,7 +4355,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>44</v>
       </c>
@@ -4353,7 +4375,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>46</v>
       </c>
@@ -4373,7 +4395,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>48</v>
       </c>
@@ -4399,7 +4421,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>34274</v>
       </c>
@@ -4425,7 +4447,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>34304</v>
       </c>
@@ -4451,7 +4473,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>49</v>
       </c>
@@ -4475,7 +4497,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>34335</v>
       </c>
@@ -4501,7 +4523,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>34366</v>
       </c>
@@ -4527,7 +4549,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>34394</v>
       </c>
@@ -4553,7 +4575,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>34425</v>
       </c>
@@ -4579,7 +4601,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>34455</v>
       </c>
@@ -4605,7 +4627,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>34486</v>
       </c>
@@ -4631,7 +4653,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>34516</v>
       </c>
@@ -4657,7 +4679,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>34547</v>
       </c>
@@ -4683,7 +4705,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>34578</v>
       </c>
@@ -4715,7 +4737,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>34608</v>
       </c>
@@ -4747,7 +4769,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>34639</v>
       </c>
@@ -4775,7 +4797,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>34669</v>
       </c>
@@ -4807,7 +4829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>55</v>
       </c>
@@ -4831,7 +4853,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>34700</v>
       </c>
@@ -4863,7 +4885,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>34731</v>
       </c>
@@ -4889,7 +4911,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>34759</v>
       </c>
@@ -4921,7 +4943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>34790</v>
       </c>
@@ -4949,7 +4971,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>34820</v>
       </c>
@@ -4975,7 +4997,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>34851</v>
       </c>
@@ -5001,7 +5023,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>34881</v>
       </c>
@@ -5027,7 +5049,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>34912</v>
       </c>
@@ -5053,7 +5075,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>34943</v>
       </c>
@@ -5079,7 +5101,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>34973</v>
       </c>
@@ -5105,7 +5127,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>35004</v>
       </c>
@@ -5131,7 +5153,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>35034</v>
       </c>
@@ -5163,7 +5185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>62</v>
       </c>
@@ -5187,7 +5209,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>35065</v>
       </c>
@@ -5213,7 +5235,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>35096</v>
       </c>
@@ -5239,7 +5261,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>35125</v>
       </c>
@@ -5265,7 +5287,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>35156</v>
       </c>
@@ -5291,7 +5313,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>35186</v>
       </c>
@@ -5321,7 +5343,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>35217</v>
       </c>
@@ -5347,7 +5369,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>35247</v>
       </c>
@@ -5373,7 +5395,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>35278</v>
       </c>
@@ -5399,7 +5421,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>35309</v>
       </c>
@@ -5425,7 +5447,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>35339</v>
       </c>
@@ -5451,7 +5473,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>35370</v>
       </c>
@@ -5477,7 +5499,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>35400</v>
       </c>
@@ -5509,7 +5531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>83</v>
       </c>
@@ -5533,7 +5555,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>35431</v>
       </c>
@@ -5559,7 +5581,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>35462</v>
       </c>
@@ -5585,7 +5607,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>35490</v>
       </c>
@@ -5617,7 +5639,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>35521</v>
       </c>
@@ -5643,7 +5665,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>35551</v>
       </c>
@@ -5669,7 +5691,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>35582</v>
       </c>
@@ -5695,7 +5717,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>35612</v>
       </c>
@@ -5721,7 +5743,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>35643</v>
       </c>
@@ -5747,7 +5769,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>35674</v>
       </c>
@@ -5773,7 +5795,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>35704</v>
       </c>
@@ -5799,7 +5821,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>35735</v>
       </c>
@@ -5825,7 +5847,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>35765</v>
       </c>
@@ -5855,7 +5877,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>93</v>
@@ -5881,7 +5903,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
         <v>84</v>
       </c>
@@ -5905,7 +5927,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>35796</v>
       </c>
@@ -5931,7 +5953,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>35827</v>
       </c>
@@ -5957,7 +5979,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>35855</v>
       </c>
@@ -5983,7 +6005,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>35886</v>
       </c>
@@ -6009,7 +6031,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>35916</v>
       </c>
@@ -6035,7 +6057,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>35947</v>
       </c>
@@ -6061,7 +6083,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>35977</v>
       </c>
@@ -6087,7 +6109,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>36008</v>
       </c>
@@ -6113,7 +6135,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>36039</v>
       </c>
@@ -6145,7 +6167,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>96</v>
@@ -6171,7 +6193,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>36069</v>
       </c>
@@ -6203,7 +6225,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>36100</v>
       </c>
@@ -6235,7 +6257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>100</v>
@@ -6261,7 +6283,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>36130</v>
       </c>
@@ -6293,7 +6315,7 @@
         <v>36140</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>102</v>
@@ -6321,7 +6343,7 @@
         <v>36157</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>103</v>
@@ -6347,7 +6369,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="52"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="47" t="s">
         <v>85</v>
       </c>
@@ -6371,7 +6393,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>36161</v>
       </c>
@@ -6403,7 +6425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>106</v>
@@ -6429,7 +6451,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>36192</v>
       </c>
@@ -6455,7 +6477,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>36220</v>
       </c>
@@ -6481,7 +6503,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>36251</v>
       </c>
@@ -6507,7 +6529,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>36281</v>
       </c>
@@ -6537,7 +6559,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>116</v>
@@ -6563,7 +6585,7 @@
         <v>36307</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>36312</v>
       </c>
@@ -6593,7 +6615,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>36342</v>
       </c>
@@ -6619,7 +6641,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>36373</v>
       </c>
@@ -6651,7 +6673,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>36404</v>
       </c>
@@ -6681,7 +6703,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>36434</v>
       </c>
@@ -6713,7 +6735,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>60</v>
@@ -6741,7 +6763,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>36465</v>
       </c>
@@ -6771,7 +6793,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>36495</v>
       </c>
@@ -6801,7 +6823,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>112</v>
@@ -6827,7 +6849,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="47" t="s">
         <v>86</v>
       </c>
@@ -6851,7 +6873,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>36526</v>
       </c>
@@ -6881,7 +6903,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>118</v>
@@ -6909,7 +6931,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>36557</v>
       </c>
@@ -6939,7 +6961,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>36586</v>
       </c>
@@ -6969,7 +6991,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>36617</v>
       </c>
@@ -6999,7 +7021,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>36647</v>
       </c>
@@ -7029,7 +7051,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>36678</v>
       </c>
@@ -7059,7 +7081,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>36708</v>
       </c>
@@ -7089,7 +7111,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>36739</v>
       </c>
@@ -7121,7 +7143,7 @@
         <v>36752</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>127</v>
@@ -7147,7 +7169,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>36770</v>
       </c>
@@ -7177,7 +7199,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>36800</v>
       </c>
@@ -7207,7 +7229,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>36831</v>
       </c>
@@ -7239,7 +7261,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>130</v>
@@ -7265,7 +7287,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>36861</v>
       </c>
@@ -7295,7 +7317,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
         <v>82</v>
       </c>
@@ -7319,7 +7341,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>36892</v>
       </c>
@@ -7349,7 +7371,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>36923</v>
       </c>
@@ -7379,7 +7401,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>133</v>
@@ -7405,7 +7427,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>36951</v>
       </c>
@@ -7435,7 +7457,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>36982</v>
       </c>
@@ -7465,7 +7487,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>37012</v>
       </c>
@@ -7495,7 +7517,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>37043</v>
       </c>
@@ -7525,7 +7547,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>37073</v>
       </c>
@@ -7557,7 +7579,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>140</v>
@@ -7583,7 +7605,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>37104</v>
       </c>
@@ -7611,7 +7633,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>37135</v>
       </c>
@@ -7639,7 +7661,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>37165</v>
       </c>
@@ -7667,7 +7689,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>37196</v>
       </c>
@@ -7695,7 +7717,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>144</v>
@@ -7721,7 +7743,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>37226</v>
       </c>
@@ -7751,7 +7773,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="47" t="s">
         <v>81</v>
       </c>
@@ -7775,7 +7797,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>37257</v>
       </c>
@@ -7805,7 +7827,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>37288</v>
       </c>
@@ -7835,7 +7857,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>37316</v>
       </c>
@@ -7865,7 +7887,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>37347</v>
       </c>
@@ -7895,7 +7917,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>37377</v>
       </c>
@@ -7921,7 +7943,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>37408</v>
       </c>
@@ -7947,7 +7969,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>37438</v>
       </c>
@@ -7979,7 +8001,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>50</v>
@@ -8004,7 +8026,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>37469</v>
       </c>
@@ -8030,7 +8052,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>37500</v>
       </c>
@@ -8056,7 +8078,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>37530</v>
       </c>
@@ -8088,7 +8110,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>153</v>
@@ -8116,7 +8138,7 @@
         <v>37596</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>37561</v>
       </c>
@@ -8142,7 +8164,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>37591</v>
       </c>
@@ -8168,7 +8190,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="47" t="s">
         <v>80</v>
       </c>
@@ -8192,7 +8214,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>37622</v>
       </c>
@@ -8218,7 +8240,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>37653</v>
       </c>
@@ -8244,7 +8266,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>37681</v>
       </c>
@@ -8270,7 +8292,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>37712</v>
       </c>
@@ -8296,7 +8318,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>37742</v>
       </c>
@@ -8322,7 +8344,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>37773</v>
       </c>
@@ -8348,7 +8370,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>37803</v>
       </c>
@@ -8374,7 +8396,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>37834</v>
       </c>
@@ -8400,7 +8422,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>37865</v>
       </c>
@@ -8430,7 +8452,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>37895</v>
       </c>
@@ -8460,7 +8482,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>37926</v>
       </c>
@@ -8490,7 +8512,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>157</v>
@@ -8516,7 +8538,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>37956</v>
       </c>
@@ -8542,7 +8564,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="47" t="s">
         <v>79</v>
       </c>
@@ -8566,7 +8588,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>37987</v>
       </c>
@@ -8592,7 +8614,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>38018</v>
       </c>
@@ -8618,7 +8640,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>38047</v>
       </c>
@@ -8644,7 +8666,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>38078</v>
       </c>
@@ -8670,7 +8692,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>38108</v>
       </c>
@@ -8696,7 +8718,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>38139</v>
       </c>
@@ -8726,7 +8748,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38169</v>
       </c>
@@ -8756,7 +8778,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>38200</v>
       </c>
@@ -8786,7 +8808,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>38231</v>
       </c>
@@ -8816,7 +8838,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>38261</v>
       </c>
@@ -8846,7 +8868,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>38292</v>
       </c>
@@ -8878,7 +8900,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>163</v>
@@ -8901,7 +8923,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>38322</v>
       </c>
@@ -8931,7 +8953,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="47" t="s">
         <v>78</v>
       </c>
@@ -8955,7 +8977,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>38353</v>
       </c>
@@ -8985,7 +9007,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>38384</v>
       </c>
@@ -9017,7 +9039,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>166</v>
@@ -9045,7 +9067,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>170</v>
@@ -9071,7 +9093,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>38412</v>
       </c>
@@ -9101,7 +9123,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>38443</v>
       </c>
@@ -9133,7 +9155,7 @@
         <v>38447</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>50</v>
@@ -9161,7 +9183,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>87</v>
@@ -9189,7 +9211,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>172</v>
@@ -9215,7 +9237,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>38473</v>
       </c>
@@ -9245,7 +9267,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>38504</v>
       </c>
@@ -9277,7 +9299,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>102</v>
@@ -9302,7 +9324,7 @@
         <v>38525</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>50</v>
@@ -9327,7 +9349,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>38534</v>
       </c>
@@ -9359,7 +9381,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>178</v>
@@ -9384,7 +9406,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>60</v>
@@ -9409,7 +9431,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>38565</v>
       </c>
@@ -9441,7 +9463,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>179</v>
@@ -9469,7 +9491,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>38596</v>
       </c>
@@ -9501,7 +9523,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>38626</v>
       </c>
@@ -9533,7 +9555,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>187</v>
@@ -9559,7 +9581,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>38657</v>
       </c>
@@ -9591,7 +9613,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>38687</v>
       </c>
@@ -9621,7 +9643,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="47" t="s">
         <v>77</v>
       </c>
@@ -9645,7 +9667,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>38718</v>
       </c>
@@ -9671,7 +9693,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>38749</v>
       </c>
@@ -9697,7 +9719,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>38777</v>
       </c>
@@ -9723,7 +9745,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>38808</v>
       </c>
@@ -9753,7 +9775,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>38838</v>
       </c>
@@ -9779,7 +9801,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>38869</v>
       </c>
@@ -9809,7 +9831,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>38899</v>
       </c>
@@ -9835,7 +9857,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>38930</v>
       </c>
@@ -9861,7 +9883,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>38961</v>
       </c>
@@ -9891,7 +9913,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>38991</v>
       </c>
@@ -9921,7 +9943,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>39022</v>
       </c>
@@ -9947,7 +9969,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>39052</v>
       </c>
@@ -9973,7 +9995,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="47" t="s">
         <v>76</v>
       </c>
@@ -9997,7 +10019,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40" t="s">
         <v>196</v>
       </c>
@@ -10025,7 +10047,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>39173</v>
       </c>
@@ -10057,7 +10079,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>50</v>
@@ -10082,7 +10104,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>102</v>
@@ -10107,7 +10129,7 @@
         <v>39223</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>102</v>
@@ -10132,7 +10154,7 @@
         <v>39227</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>60</v>
@@ -10157,7 +10179,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>198</v>
@@ -10180,7 +10202,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>39203</v>
       </c>
@@ -10210,7 +10232,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>39234</v>
       </c>
@@ -10242,7 +10264,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>200</v>
@@ -10265,7 +10287,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39264</v>
       </c>
@@ -10297,7 +10319,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>102</v>
@@ -10322,7 +10344,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>99</v>
@@ -10347,7 +10369,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>201</v>
@@ -10370,7 +10392,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>39295</v>
       </c>
@@ -10400,7 +10422,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>202</v>
@@ -10425,7 +10447,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>203</v>
@@ -10448,7 +10470,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>39326</v>
       </c>
@@ -10480,7 +10502,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>60</v>
@@ -10505,7 +10527,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>102</v>
@@ -10530,7 +10552,7 @@
         <v>39345</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>102</v>
@@ -10555,7 +10577,7 @@
         <v>39350</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>112</v>
@@ -10580,7 +10602,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>213</v>
@@ -10603,7 +10625,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>39356</v>
       </c>
@@ -10635,7 +10657,7 @@
         <v>39381</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>214</v>
@@ -10661,7 +10683,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>39387</v>
       </c>
@@ -10693,7 +10715,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>50</v>
@@ -10721,7 +10743,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>215</v>
@@ -10747,7 +10769,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>39417</v>
       </c>
@@ -10777,7 +10799,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="47" t="s">
         <v>75</v>
       </c>
@@ -10801,7 +10823,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>39448</v>
       </c>
@@ -10833,7 +10855,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>50</v>
@@ -10861,7 +10883,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -10889,7 +10911,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>217</v>
@@ -10915,7 +10937,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>39479</v>
       </c>
@@ -10947,7 +10969,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>102</v>
@@ -10972,7 +10994,7 @@
         <v>39496</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>218</v>
@@ -10995,7 +11017,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>39508</v>
       </c>
@@ -11027,7 +11049,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>223</v>
@@ -11050,7 +11072,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>39539</v>
       </c>
@@ -11080,7 +11102,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>118</v>
@@ -11103,7 +11125,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>39569</v>
       </c>
@@ -11133,7 +11155,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>224</v>
@@ -11159,7 +11181,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>39600</v>
       </c>
@@ -11191,7 +11213,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>102</v>
@@ -11219,7 +11241,7 @@
         <v>39641</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>225</v>
@@ -11245,7 +11267,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>39630</v>
       </c>
@@ -11277,7 +11299,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>226</v>
@@ -11303,7 +11325,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>39661</v>
       </c>
@@ -11335,7 +11357,7 @@
         <v>39661</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>102</v>
@@ -11363,7 +11385,7 @@
         <v>39681</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>102</v>
@@ -11391,7 +11413,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>227</v>
@@ -11417,7 +11439,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>39692</v>
       </c>
@@ -11449,7 +11471,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>50</v>
@@ -11477,7 +11499,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>228</v>
@@ -11503,7 +11525,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>39722</v>
       </c>
@@ -11535,7 +11557,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>229</v>
@@ -11561,7 +11583,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>102</v>
@@ -11589,7 +11611,7 @@
         <v>39749</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>243</v>
@@ -11615,7 +11637,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>39753</v>
       </c>
@@ -11645,7 +11667,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>39783</v>
       </c>
@@ -11677,7 +11699,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>87</v>
@@ -11702,7 +11724,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -11724,7 +11746,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="47" t="s">
         <v>74</v>
       </c>
@@ -11748,7 +11770,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>39814</v>
       </c>
@@ -11778,7 +11800,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>102</v>
@@ -11806,7 +11828,7 @@
         <v>39840</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>104</v>
@@ -11834,7 +11856,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>246</v>
@@ -11860,7 +11882,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>39845</v>
       </c>
@@ -11892,7 +11914,7 @@
         <v>39874</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>247</v>
@@ -11918,7 +11940,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>39873</v>
       </c>
@@ -11950,7 +11972,7 @@
         <v>39892</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>116</v>
@@ -11976,7 +11998,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>248</v>
@@ -12002,7 +12024,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>102</v>
@@ -12030,7 +12052,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>39904</v>
       </c>
@@ -12060,7 +12082,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>102</v>
@@ -12085,7 +12107,7 @@
         <v>39952</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>39934</v>
       </c>
@@ -12117,7 +12139,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>102</v>
@@ -12145,7 +12167,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>250</v>
@@ -12171,7 +12193,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>39965</v>
       </c>
@@ -12203,7 +12225,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>50</v>
@@ -12231,7 +12253,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>251</v>
@@ -12257,7 +12279,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>39995</v>
       </c>
@@ -12289,7 +12311,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>187</v>
@@ -12315,7 +12337,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>102</v>
@@ -12343,7 +12365,7 @@
         <v>39996</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>252</v>
@@ -12369,7 +12391,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>40026</v>
       </c>
@@ -12395,7 +12417,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>40057</v>
       </c>
@@ -12425,7 +12447,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>40087</v>
       </c>
@@ -12457,7 +12479,7 @@
         <v>40091</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>102</v>
@@ -12485,7 +12507,7 @@
         <v>40102</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>50</v>
@@ -12513,7 +12535,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>102</v>
@@ -12541,7 +12563,7 @@
         <v>40113</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>262</v>
@@ -12567,7 +12589,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="52"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>40118</v>
       </c>
@@ -12599,7 +12621,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>102</v>
@@ -12627,7 +12649,7 @@
         <v>40140</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>264</v>
@@ -12653,7 +12675,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>40148</v>
       </c>
@@ -12685,7 +12707,7 @@
         <v>40149</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>50</v>
@@ -12713,7 +12735,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>265</v>
@@ -12739,7 +12761,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="47" t="s">
         <v>73</v>
       </c>
@@ -12763,7 +12785,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>40179</v>
       </c>
@@ -12797,7 +12819,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>267</v>
@@ -12823,7 +12845,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40210</v>
       </c>
@@ -12855,7 +12877,7 @@
         <v>40214</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>60</v>
@@ -12883,7 +12905,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>268</v>
@@ -12909,7 +12931,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>40238</v>
       </c>
@@ -12939,7 +12961,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>40269</v>
       </c>
@@ -12971,7 +12993,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>53</v>
@@ -12996,7 +13018,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>273</v>
@@ -13019,7 +13041,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>40299</v>
       </c>
@@ -13049,7 +13071,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>274</v>
@@ -13075,7 +13097,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>40330</v>
       </c>
@@ -13107,7 +13129,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>275</v>
@@ -13133,7 +13155,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>40360</v>
       </c>
@@ -13163,7 +13185,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>40391</v>
       </c>
@@ -13195,7 +13217,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>53</v>
@@ -13223,7 +13245,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>60</v>
@@ -13251,7 +13273,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>276</v>
@@ -13277,7 +13299,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>40422</v>
       </c>
@@ -13307,7 +13329,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>40452</v>
       </c>
@@ -13339,7 +13361,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>278</v>
@@ -13365,7 +13387,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>40483</v>
       </c>
@@ -13395,7 +13417,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>40513</v>
       </c>
@@ -13427,7 +13449,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>50</v>
@@ -13455,7 +13477,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>280</v>
@@ -13481,7 +13503,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="47" t="s">
         <v>72</v>
       </c>
@@ -13505,7 +13527,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>40544</v>
       </c>
@@ -13537,7 +13559,7 @@
         <v>40548</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>290</v>
@@ -13563,7 +13585,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="52"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>40575</v>
       </c>
@@ -13595,7 +13617,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>291</v>
@@ -13621,7 +13643,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>40603</v>
       </c>
@@ -13651,7 +13673,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>292</v>
@@ -13677,7 +13699,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>40634</v>
       </c>
@@ -13709,7 +13731,7 @@
         <v>40646</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>293</v>
@@ -13735,7 +13757,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>40664</v>
       </c>
@@ -13765,7 +13787,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>102</v>
@@ -13793,7 +13815,7 @@
         <v>40688</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>102</v>
@@ -13821,7 +13843,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>294</v>
@@ -13847,7 +13869,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>40695</v>
       </c>
@@ -13879,7 +13901,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>295</v>
@@ -13905,7 +13927,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>40725</v>
       </c>
@@ -13937,7 +13959,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>301</v>
@@ -13963,7 +13985,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>40756</v>
       </c>
@@ -13995,7 +14017,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>102</v>
@@ -14023,7 +14045,7 @@
         <v>40758</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>102</v>
@@ -14051,7 +14073,7 @@
         <v>40773</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>296</v>
@@ -14077,7 +14099,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>40787</v>
       </c>
@@ -14109,7 +14131,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>102</v>
@@ -14137,7 +14159,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>303</v>
@@ -14163,7 +14185,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="53"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>40817</v>
       </c>
@@ -14195,7 +14217,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>304</v>
@@ -14223,7 +14245,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>305</v>
@@ -14249,7 +14271,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>40848</v>
       </c>
@@ -14281,7 +14303,7 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>304</v>
@@ -14311,7 +14333,7 @@
         <v>40843</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>306</v>
@@ -14337,7 +14359,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>40878</v>
       </c>
@@ -14369,7 +14391,7 @@
         <v>40889</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>102</v>
@@ -14397,7 +14419,7 @@
         <v>40892</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>50</v>
@@ -14425,7 +14447,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>307</v>
@@ -14451,7 +14473,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="47" t="s">
         <v>71</v>
       </c>
@@ -14475,7 +14497,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>40909</v>
       </c>
@@ -14507,7 +14529,7 @@
         <v>40938</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>309</v>
@@ -14533,7 +14555,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>40940</v>
       </c>
@@ -14565,7 +14587,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>311</v>
@@ -14591,7 +14613,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>40969</v>
       </c>
@@ -14625,7 +14647,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>313</v>
@@ -14651,7 +14673,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>41000</v>
       </c>
@@ -14683,7 +14705,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>314</v>
@@ -14709,7 +14731,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>41030</v>
       </c>
@@ -14741,7 +14763,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>50</v>
@@ -14769,7 +14791,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>116</v>
@@ -14795,7 +14817,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>102</v>
@@ -14823,7 +14845,7 @@
         <v>41054</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>315</v>
@@ -14849,7 +14871,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>41061</v>
       </c>
@@ -14879,7 +14901,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>41091</v>
       </c>
@@ -14911,7 +14933,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>317</v>
@@ -14937,7 +14959,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>41122</v>
       </c>
@@ -14969,7 +14991,7 @@
         <v>41149</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>318</v>
@@ -14995,7 +15017,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>41153</v>
       </c>
@@ -15027,7 +15049,7 @@
         <v>41177</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>319</v>
@@ -15053,7 +15075,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>41183</v>
       </c>
@@ -15083,7 +15105,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>41214</v>
       </c>
@@ -15115,7 +15137,7 @@
         <v>41226</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>50</v>
@@ -15143,7 +15165,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>321</v>
@@ -15169,7 +15191,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>41244</v>
       </c>
@@ -15201,7 +15223,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>266</v>
@@ -15231,7 +15253,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="47" t="s">
         <v>70</v>
       </c>
@@ -15255,7 +15277,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>41275</v>
       </c>
@@ -15287,7 +15309,7 @@
         <v>41297</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>330</v>
@@ -15313,7 +15335,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="52"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>41306</v>
       </c>
@@ -15347,7 +15369,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>304</v>
@@ -15375,7 +15397,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>331</v>
@@ -15401,7 +15423,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>102</v>
@@ -15429,7 +15451,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>41334</v>
       </c>
@@ -15459,7 +15481,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>41365</v>
       </c>
@@ -15489,7 +15511,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>41395</v>
       </c>
@@ -15519,7 +15541,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>333</v>
@@ -15545,7 +15567,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>41426</v>
       </c>
@@ -15575,7 +15597,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>41456</v>
       </c>
@@ -15605,7 +15627,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>41487</v>
       </c>
@@ -15637,7 +15659,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>336</v>
@@ -15663,7 +15685,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>41518</v>
       </c>
@@ -15695,7 +15717,7 @@
         <v>41540</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>337</v>
@@ -15721,7 +15743,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>41548</v>
       </c>
@@ -15751,7 +15773,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>41579</v>
       </c>
@@ -15781,7 +15803,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>41609</v>
       </c>
@@ -15815,7 +15837,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>343</v>
@@ -15841,7 +15863,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="47" t="s">
         <v>69</v>
       </c>
@@ -15865,7 +15887,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>41640</v>
       </c>
@@ -15899,7 +15921,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>344</v>
@@ -15925,7 +15947,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>41671</v>
       </c>
@@ -15955,7 +15977,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>41699</v>
       </c>
@@ -15987,7 +16009,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>346</v>
@@ -16013,7 +16035,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>41730</v>
       </c>
@@ -16043,7 +16065,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>41760</v>
       </c>
@@ -16077,7 +16099,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>312</v>
@@ -16107,7 +16129,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>349</v>
@@ -16133,7 +16155,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>41791</v>
       </c>
@@ -16163,7 +16185,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>41821</v>
       </c>
@@ -16193,7 +16215,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>41852</v>
       </c>
@@ -16225,7 +16247,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>358</v>
@@ -16255,7 +16277,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>350</v>
@@ -16281,7 +16303,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>41883</v>
       </c>
@@ -16315,7 +16337,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>160</v>
@@ -16341,7 +16363,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>41913</v>
       </c>
@@ -16371,7 +16393,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>41944</v>
       </c>
@@ -16401,7 +16423,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>41974</v>
       </c>
@@ -16431,7 +16453,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="47" t="s">
         <v>68</v>
       </c>
@@ -16455,7 +16477,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>42005</v>
       </c>
@@ -16485,7 +16507,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>42036</v>
       </c>
@@ -16515,7 +16537,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>42064</v>
       </c>
@@ -16545,7 +16567,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>364</v>
@@ -16571,7 +16593,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>42095</v>
       </c>
@@ -16601,7 +16623,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>42125</v>
       </c>
@@ -16633,7 +16655,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>366</v>
@@ -16661,7 +16683,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>42156</v>
       </c>
@@ -16691,7 +16713,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>229</v>
@@ -16717,7 +16739,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>367</v>
@@ -16743,7 +16765,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>42186</v>
       </c>
@@ -16773,7 +16795,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42217</v>
       </c>
@@ -16805,7 +16827,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>369</v>
@@ -16831,7 +16853,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>42248</v>
       </c>
@@ -16861,7 +16883,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>42278</v>
       </c>
@@ -16891,7 +16913,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>42309</v>
       </c>
@@ -16921,7 +16943,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>42339</v>
       </c>
@@ -16951,7 +16973,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="47" t="s">
         <v>67</v>
       </c>
@@ -16975,7 +16997,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>42370</v>
       </c>
@@ -17005,7 +17027,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>42401</v>
       </c>
@@ -17035,7 +17057,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>42430</v>
       </c>
@@ -17065,7 +17087,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>42461</v>
       </c>
@@ -17095,7 +17117,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>42491</v>
       </c>
@@ -17125,7 +17147,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>366</v>
@@ -17151,7 +17173,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>42522</v>
       </c>
@@ -17181,7 +17203,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>42552</v>
       </c>
@@ -17211,7 +17233,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>42583</v>
       </c>
@@ -17241,7 +17263,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>42614</v>
       </c>
@@ -17273,7 +17295,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>102</v>
@@ -17301,7 +17323,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>385</v>
@@ -17329,7 +17351,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>386</v>
@@ -17355,7 +17377,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>42644</v>
       </c>
@@ -17385,7 +17407,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>42675</v>
       </c>
@@ -17417,7 +17439,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>50</v>
@@ -17442,7 +17464,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>388</v>
@@ -17465,7 +17487,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>42705</v>
       </c>
@@ -17495,7 +17517,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="47" t="s">
         <v>66</v>
       </c>
@@ -17519,7 +17541,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>42736</v>
       </c>
@@ -17551,7 +17573,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>229</v>
@@ -17577,7 +17599,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>42767</v>
       </c>
@@ -17607,7 +17629,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>42795</v>
       </c>
@@ -17637,7 +17659,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>42826</v>
       </c>
@@ -17669,7 +17691,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>100</v>
@@ -17695,7 +17717,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>42856</v>
       </c>
@@ -17725,7 +17747,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>102</v>
@@ -17753,7 +17775,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>398</v>
@@ -17779,7 +17801,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>42887</v>
       </c>
@@ -17809,7 +17831,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>42917</v>
       </c>
@@ -17835,7 +17857,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>42948</v>
       </c>
@@ -17865,7 +17887,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>42979</v>
       </c>
@@ -17897,7 +17919,7 @@
         <v>42985</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>401</v>
@@ -17923,7 +17945,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>43009</v>
       </c>
@@ -17955,7 +17977,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>110</v>
@@ -17983,7 +18005,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>50</v>
@@ -18011,7 +18033,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>50</v>
@@ -18039,7 +18061,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>102</v>
@@ -18067,7 +18089,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>408</v>
@@ -18093,7 +18115,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="52"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>43040</v>
       </c>
@@ -18119,7 +18141,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>43070</v>
       </c>
@@ -18151,7 +18173,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>50</v>
@@ -18179,7 +18201,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -18201,7 +18223,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="47" t="s">
         <v>65</v>
       </c>
@@ -18225,7 +18247,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>43101</v>
       </c>
@@ -18257,7 +18279,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>90</v>
@@ -18283,7 +18305,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>43132</v>
       </c>
@@ -18309,7 +18331,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>43160</v>
       </c>
@@ -18341,7 +18363,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>43191</v>
       </c>
@@ -18367,7 +18389,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>43221</v>
       </c>
@@ -18399,7 +18421,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>43252</v>
       </c>
@@ -18425,7 +18447,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>43282</v>
       </c>
@@ -18451,7 +18473,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>43313</v>
       </c>
@@ -18477,7 +18499,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>43344</v>
       </c>
@@ -18503,7 +18525,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>43374</v>
       </c>
@@ -18535,7 +18557,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>310</v>
@@ -18560,7 +18582,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>43405</v>
       </c>
@@ -18586,7 +18608,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>43435</v>
       </c>
@@ -18618,7 +18640,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>92</v>
@@ -18641,7 +18663,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="47" t="s">
         <v>64</v>
       </c>
@@ -18665,7 +18687,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>43466</v>
       </c>
@@ -18691,7 +18713,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>43497</v>
       </c>
@@ -18723,7 +18745,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>43525</v>
       </c>
@@ -18755,7 +18777,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>43556</v>
       </c>
@@ -18781,7 +18803,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>43586</v>
       </c>
@@ -18811,7 +18833,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>60</v>
@@ -18819,7 +18841,7 @@
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
       <c r="E527" s="9">
-        <f t="shared" ref="E527:E580" si="16">SUM(C527,E526)-D527</f>
+        <f t="shared" ref="E527:E587" si="16">SUM(C527,E526)-D527</f>
         <v>-32.384999999999991</v>
       </c>
       <c r="F527" s="20"/>
@@ -18828,7 +18850,7 @@
         <v>3</v>
       </c>
       <c r="I527" s="9">
-        <f t="shared" ref="I527:I580" si="17">SUM(G527,I526)-H527</f>
+        <f t="shared" ref="I527:I586" si="17">SUM(G527,I526)-H527</f>
         <v>10.625</v>
       </c>
       <c r="J527" s="11"/>
@@ -18836,7 +18858,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>43617</v>
       </c>
@@ -18862,7 +18884,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>43647</v>
       </c>
@@ -18888,7 +18910,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>43678</v>
       </c>
@@ -18920,7 +18942,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>43709</v>
       </c>
@@ -18946,7 +18968,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>43739</v>
       </c>
@@ -18978,7 +19000,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>50</v>
@@ -19003,7 +19025,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>43770</v>
       </c>
@@ -19035,7 +19057,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>43800</v>
       </c>
@@ -19061,7 +19083,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="47" t="s">
         <v>63</v>
       </c>
@@ -19085,7 +19107,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>43831</v>
       </c>
@@ -19115,7 +19137,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>43862</v>
       </c>
@@ -19141,7 +19163,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>43891</v>
       </c>
@@ -19167,7 +19189,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>43922</v>
       </c>
@@ -19193,7 +19215,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>43952</v>
       </c>
@@ -19219,7 +19241,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>43983</v>
       </c>
@@ -19245,7 +19267,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>44013</v>
       </c>
@@ -19277,7 +19299,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>44044</v>
       </c>
@@ -19303,7 +19325,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44075</v>
       </c>
@@ -19329,7 +19351,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>44105</v>
       </c>
@@ -19355,7 +19377,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44136</v>
       </c>
@@ -19381,7 +19403,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>44166</v>
       </c>
@@ -19411,7 +19433,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="47" t="s">
         <v>426</v>
       </c>
@@ -19435,7 +19457,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>44197</v>
       </c>
@@ -19461,7 +19483,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>44228</v>
       </c>
@@ -19487,7 +19509,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>44256</v>
       </c>
@@ -19513,7 +19535,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>44287</v>
       </c>
@@ -19539,7 +19561,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>44317</v>
       </c>
@@ -19565,7 +19587,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>44348</v>
       </c>
@@ -19591,7 +19613,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>44378</v>
       </c>
@@ -19617,7 +19639,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>44409</v>
       </c>
@@ -19649,7 +19671,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>44440</v>
       </c>
@@ -19675,7 +19697,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>44470</v>
       </c>
@@ -19701,7 +19723,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>44501</v>
       </c>
@@ -19727,7 +19749,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>44531</v>
       </c>
@@ -19757,7 +19779,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="47" t="s">
         <v>430</v>
       </c>
@@ -19781,7 +19803,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>44562</v>
       </c>
@@ -19807,7 +19829,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>44593</v>
       </c>
@@ -19833,7 +19855,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>44621</v>
       </c>
@@ -19859,7 +19881,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>44652</v>
       </c>
@@ -19885,7 +19907,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>44682</v>
       </c>
@@ -19911,7 +19933,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>44713</v>
       </c>
@@ -19937,7 +19959,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>44743</v>
       </c>
@@ -19963,7 +19985,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>44774</v>
       </c>
@@ -19989,7 +20011,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>44805</v>
       </c>
@@ -20015,7 +20037,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>44835</v>
       </c>
@@ -20041,7 +20063,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>44866</v>
       </c>
@@ -20067,7 +20089,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>44896</v>
       </c>
@@ -20097,7 +20119,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="47" t="s">
         <v>429</v>
       </c>
@@ -20121,7 +20143,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>44927</v>
       </c>
@@ -20147,7 +20169,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>44958</v>
       </c>
@@ -20173,7 +20195,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>44986</v>
       </c>
@@ -20199,7 +20221,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>45017</v>
       </c>
@@ -20225,7 +20247,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>45047</v>
       </c>
@@ -20251,7 +20273,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>45078</v>
       </c>
@@ -20260,18 +20282,24 @@
         <v>1.25</v>
       </c>
       <c r="D581" s="39"/>
-      <c r="E581" s="9"/>
+      <c r="E581" s="9">
+        <f t="shared" si="16"/>
+        <v>8.8650000000000091</v>
+      </c>
       <c r="F581" s="20"/>
       <c r="G581" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H581" s="39"/>
-      <c r="I581" s="9"/>
+      <c r="I581" s="9">
+        <f t="shared" si="17"/>
+        <v>39.875</v>
+      </c>
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>45108</v>
       </c>
@@ -20280,18 +20308,24 @@
         <v>1.25</v>
       </c>
       <c r="D582" s="39"/>
-      <c r="E582" s="9"/>
+      <c r="E582" s="9">
+        <f t="shared" si="16"/>
+        <v>10.115000000000009</v>
+      </c>
       <c r="F582" s="20"/>
       <c r="G582" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H582" s="39"/>
-      <c r="I582" s="9"/>
+      <c r="I582" s="9">
+        <f t="shared" si="17"/>
+        <v>41.125</v>
+      </c>
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>45139</v>
       </c>
@@ -20300,18 +20334,24 @@
         <v>1.25</v>
       </c>
       <c r="D583" s="39"/>
-      <c r="E583" s="9"/>
+      <c r="E583" s="9">
+        <f t="shared" si="16"/>
+        <v>11.365000000000009</v>
+      </c>
       <c r="F583" s="20"/>
       <c r="G583" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H583" s="39"/>
-      <c r="I583" s="9"/>
+      <c r="I583" s="9">
+        <f t="shared" si="17"/>
+        <v>42.375</v>
+      </c>
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>45170</v>
       </c>
@@ -20320,18 +20360,24 @@
         <v>1.25</v>
       </c>
       <c r="D584" s="39"/>
-      <c r="E584" s="9"/>
+      <c r="E584" s="9">
+        <f t="shared" si="16"/>
+        <v>12.615000000000009</v>
+      </c>
       <c r="F584" s="20"/>
       <c r="G584" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H584" s="39"/>
-      <c r="I584" s="9"/>
+      <c r="I584" s="9">
+        <f t="shared" si="17"/>
+        <v>43.625</v>
+      </c>
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>45200</v>
       </c>
@@ -20340,18 +20386,24 @@
         <v>1.25</v>
       </c>
       <c r="D585" s="39"/>
-      <c r="E585" s="9"/>
+      <c r="E585" s="9">
+        <f t="shared" si="16"/>
+        <v>13.865000000000009</v>
+      </c>
       <c r="F585" s="20"/>
       <c r="G585" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H585" s="39"/>
-      <c r="I585" s="9"/>
+      <c r="I585" s="9">
+        <f t="shared" si="17"/>
+        <v>44.875</v>
+      </c>
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>45231</v>
       </c>
@@ -20364,20 +20416,26 @@
       <c r="D586" s="39">
         <v>1</v>
       </c>
-      <c r="E586" s="9"/>
+      <c r="E586" s="9">
+        <f t="shared" si="16"/>
+        <v>14.115000000000009</v>
+      </c>
       <c r="F586" s="20"/>
       <c r="G586" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H586" s="39"/>
-      <c r="I586" s="9"/>
+      <c r="I586" s="9">
+        <f t="shared" si="17"/>
+        <v>46.125</v>
+      </c>
       <c r="J586" s="11"/>
       <c r="K586" s="52">
         <v>45246</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>433</v>
@@ -20386,7 +20444,10 @@
       <c r="D587" s="39">
         <v>4</v>
       </c>
-      <c r="E587" s="9"/>
+      <c r="E587" s="9">
+        <f t="shared" si="16"/>
+        <v>10.115000000000009</v>
+      </c>
       <c r="F587" s="20"/>
       <c r="G587" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -20399,7 +20460,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>45261</v>
       </c>
@@ -20419,7 +20480,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="47" t="s">
         <v>431</v>
       </c>
@@ -20437,29 +20498,37 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B590" s="20"/>
-      <c r="C590" s="13"/>
+      <c r="C590" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D590" s="39"/>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G590" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" s="54"/>
-      <c r="B591" s="15"/>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A591" s="54">
+        <v>45351</v>
+      </c>
+      <c r="B591" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="C591" s="41"/>
-      <c r="D591" s="42"/>
+      <c r="D591" s="42">
+        <v>3</v>
+      </c>
       <c r="E591" s="9"/>
       <c r="F591" s="15"/>
       <c r="G591" s="41" t="str">
@@ -20469,7 +20538,25 @@
       <c r="H591" s="42"/>
       <c r="I591" s="9"/>
       <c r="J591" s="12"/>
-      <c r="K591" s="15"/>
+      <c r="K591" s="15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A592" s="54"/>
+      <c r="B592" s="15"/>
+      <c r="C592" s="41"/>
+      <c r="D592" s="42"/>
+      <c r="E592" s="67"/>
+      <c r="F592" s="15"/>
+      <c r="G592" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H592" s="42"/>
+      <c r="I592" s="67"/>
+      <c r="J592" s="12"/>
+      <c r="K592" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20485,11 +20572,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20512,7 +20599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20520,21 +20607,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -20547,7 +20634,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20576,7 +20663,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -20602,17 +20689,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20633,7 +20720,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20660,7 +20747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20686,7 +20773,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20712,7 +20799,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20738,7 +20825,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20764,7 +20851,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20790,7 +20877,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20816,7 +20903,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20842,7 +20929,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20862,7 +20949,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20882,7 +20969,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20902,7 +20989,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20923,7 +21010,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20944,7 +21031,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20965,7 +21052,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20986,7 +21073,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21007,7 +21094,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21028,7 +21115,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21049,7 +21136,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21070,7 +21157,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21091,7 +21178,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21112,7 +21199,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21133,7 +21220,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21154,7 +21241,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21175,7 +21262,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21196,7 +21283,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21217,7 +21304,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21238,7 +21325,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21259,7 +21346,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21280,7 +21367,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21301,7 +21388,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21322,7 +21409,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21331,7 +21418,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21340,7 +21427,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21349,7 +21436,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21358,7 +21445,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21367,7 +21454,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21376,7 +21463,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21385,7 +21472,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21394,7 +21481,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21403,7 +21490,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21412,7 +21499,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21421,7 +21508,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21430,7 +21517,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21439,7 +21526,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21448,7 +21535,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21457,7 +21544,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21466,7 +21553,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21475,7 +21562,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21484,7 +21571,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21493,7 +21580,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21502,7 +21589,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21511,7 +21598,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21520,7 +21607,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21529,7 +21616,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21538,7 +21625,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21547,7 +21634,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21556,7 +21643,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21565,7 +21652,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21574,7 +21661,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21583,7 +21670,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/ALCANTARA, RIZALINA.xlsx
+++ b/REGULAR/OJT/ALCANTARA, RIZALINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7246B1E9-26AB-497D-A6FB-6F5F37CD2102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="440">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1352,12 +1351,15 @@
   </si>
   <si>
     <t>2/7,8,9/2024</t>
+  </si>
+  <si>
+    <t>01/31/2024,02/01,02/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1748,6 +1750,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1783,9 +1788,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2235,7 +2237,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2280,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2342,7 +2344,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2404,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2468,7 +2470,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,7 +2533,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2631,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2690,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2755,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,7 +2798,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2873,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3057,7 +3059,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3125,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3181,7 +3183,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,7 +3249,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3305,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3380,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3421,7 +3423,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3489,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3543,7 +3545,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3641,7 +3643,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3704,7 +3706,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3753,7 +3755,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3770,26 +3772,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K592" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K592" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K592" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K592"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3801,13 +3803,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3816,14 +3818,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4127,7 +4129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4137,7 +4139,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4145,97 +4147,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:M592"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A580" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A569" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K592" sqref="K592"/>
+      <selection pane="bottomLeft" activeCell="I582" sqref="I582"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="33.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="61"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="62" t="s">
         <v>437</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4243,7 +4245,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4256,24 +4258,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4308,7 +4310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4327,13 +4329,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>48.625</v>
+        <v>45.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="43"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4355,7 +4357,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>44</v>
       </c>
@@ -4375,7 +4377,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>46</v>
       </c>
@@ -4395,7 +4397,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>48</v>
       </c>
@@ -4421,7 +4423,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34274</v>
       </c>
@@ -4447,7 +4449,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34304</v>
       </c>
@@ -4473,7 +4475,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>49</v>
       </c>
@@ -4497,7 +4499,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>34335</v>
       </c>
@@ -4523,7 +4525,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34366</v>
       </c>
@@ -4549,7 +4551,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>34394</v>
       </c>
@@ -4575,7 +4577,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>34425</v>
       </c>
@@ -4601,7 +4603,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>34455</v>
       </c>
@@ -4627,7 +4629,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>34486</v>
       </c>
@@ -4653,7 +4655,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>34516</v>
       </c>
@@ -4679,7 +4681,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>34547</v>
       </c>
@@ -4705,7 +4707,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>34578</v>
       </c>
@@ -4737,7 +4739,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>34608</v>
       </c>
@@ -4769,7 +4771,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>34639</v>
       </c>
@@ -4797,7 +4799,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>34669</v>
       </c>
@@ -4829,7 +4831,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>55</v>
       </c>
@@ -4853,7 +4855,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>34700</v>
       </c>
@@ -4885,7 +4887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>34731</v>
       </c>
@@ -4911,7 +4913,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>34759</v>
       </c>
@@ -4943,7 +4945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>34790</v>
       </c>
@@ -4971,7 +4973,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>34820</v>
       </c>
@@ -4997,7 +4999,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>34851</v>
       </c>
@@ -5023,7 +5025,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>34881</v>
       </c>
@@ -5049,7 +5051,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>34912</v>
       </c>
@@ -5075,7 +5077,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>34943</v>
       </c>
@@ -5101,7 +5103,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>34973</v>
       </c>
@@ -5127,7 +5129,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35004</v>
       </c>
@@ -5153,7 +5155,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>35034</v>
       </c>
@@ -5185,7 +5187,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>62</v>
       </c>
@@ -5209,7 +5211,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>35065</v>
       </c>
@@ -5235,7 +5237,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>35096</v>
       </c>
@@ -5261,7 +5263,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>35125</v>
       </c>
@@ -5287,7 +5289,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>35156</v>
       </c>
@@ -5313,7 +5315,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>35186</v>
       </c>
@@ -5343,7 +5345,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>35217</v>
       </c>
@@ -5369,7 +5371,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>35247</v>
       </c>
@@ -5395,7 +5397,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35278</v>
       </c>
@@ -5421,7 +5423,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>35309</v>
       </c>
@@ -5447,7 +5449,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>35339</v>
       </c>
@@ -5473,7 +5475,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>35370</v>
       </c>
@@ -5499,7 +5501,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35400</v>
       </c>
@@ -5531,7 +5533,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
         <v>83</v>
       </c>
@@ -5555,7 +5557,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>35431</v>
       </c>
@@ -5581,7 +5583,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>35462</v>
       </c>
@@ -5607,7 +5609,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>35490</v>
       </c>
@@ -5639,7 +5641,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>35521</v>
       </c>
@@ -5665,7 +5667,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>35551</v>
       </c>
@@ -5691,7 +5693,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>35582</v>
       </c>
@@ -5717,7 +5719,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>35612</v>
       </c>
@@ -5743,7 +5745,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>35643</v>
       </c>
@@ -5769,7 +5771,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>35674</v>
       </c>
@@ -5795,7 +5797,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>35704</v>
       </c>
@@ -5821,7 +5823,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>35735</v>
       </c>
@@ -5847,7 +5849,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>35765</v>
       </c>
@@ -5877,7 +5879,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>93</v>
@@ -5903,7 +5905,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
         <v>84</v>
       </c>
@@ -5927,7 +5929,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>35796</v>
       </c>
@@ -5953,7 +5955,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>35827</v>
       </c>
@@ -5979,7 +5981,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>35855</v>
       </c>
@@ -6005,7 +6007,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>35886</v>
       </c>
@@ -6031,7 +6033,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>35916</v>
       </c>
@@ -6057,7 +6059,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>35947</v>
       </c>
@@ -6083,7 +6085,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>35977</v>
       </c>
@@ -6109,7 +6111,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>36008</v>
       </c>
@@ -6135,7 +6137,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>36039</v>
       </c>
@@ -6167,7 +6169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>96</v>
@@ -6193,7 +6195,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36069</v>
       </c>
@@ -6225,7 +6227,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>36100</v>
       </c>
@@ -6257,7 +6259,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>100</v>
@@ -6283,7 +6285,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>36130</v>
       </c>
@@ -6315,7 +6317,7 @@
         <v>36140</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>102</v>
@@ -6343,7 +6345,7 @@
         <v>36157</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>103</v>
@@ -6369,7 +6371,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="52"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
         <v>85</v>
       </c>
@@ -6393,7 +6395,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>36161</v>
       </c>
@@ -6425,7 +6427,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>106</v>
@@ -6451,7 +6453,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>36192</v>
       </c>
@@ -6477,7 +6479,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36220</v>
       </c>
@@ -6503,7 +6505,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>36251</v>
       </c>
@@ -6529,7 +6531,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>36281</v>
       </c>
@@ -6559,7 +6561,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>116</v>
@@ -6585,7 +6587,7 @@
         <v>36307</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36312</v>
       </c>
@@ -6615,7 +6617,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>36342</v>
       </c>
@@ -6641,7 +6643,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>36373</v>
       </c>
@@ -6673,7 +6675,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>36404</v>
       </c>
@@ -6703,7 +6705,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>36434</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>60</v>
@@ -6763,7 +6765,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>36465</v>
       </c>
@@ -6793,7 +6795,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>36495</v>
       </c>
@@ -6823,7 +6825,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>112</v>
@@ -6849,7 +6851,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
         <v>86</v>
       </c>
@@ -6873,7 +6875,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36526</v>
       </c>
@@ -6903,7 +6905,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>118</v>
@@ -6931,7 +6933,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36557</v>
       </c>
@@ -6961,7 +6963,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36586</v>
       </c>
@@ -6991,7 +6993,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>36617</v>
       </c>
@@ -7021,7 +7023,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>36647</v>
       </c>
@@ -7051,7 +7053,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>36678</v>
       </c>
@@ -7081,7 +7083,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>36708</v>
       </c>
@@ -7111,7 +7113,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36739</v>
       </c>
@@ -7143,7 +7145,7 @@
         <v>36752</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>127</v>
@@ -7169,7 +7171,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>36770</v>
       </c>
@@ -7199,7 +7201,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>36800</v>
       </c>
@@ -7229,7 +7231,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>36831</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>130</v>
@@ -7287,7 +7289,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>36861</v>
       </c>
@@ -7317,7 +7319,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>82</v>
       </c>
@@ -7341,7 +7343,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36892</v>
       </c>
@@ -7371,7 +7373,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>36923</v>
       </c>
@@ -7401,7 +7403,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>133</v>
@@ -7427,7 +7429,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>36951</v>
       </c>
@@ -7457,7 +7459,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>36982</v>
       </c>
@@ -7487,7 +7489,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37012</v>
       </c>
@@ -7517,7 +7519,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>37043</v>
       </c>
@@ -7547,7 +7549,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37073</v>
       </c>
@@ -7579,7 +7581,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>140</v>
@@ -7605,7 +7607,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37104</v>
       </c>
@@ -7633,7 +7635,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37135</v>
       </c>
@@ -7661,7 +7663,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>37165</v>
       </c>
@@ -7689,7 +7691,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>37196</v>
       </c>
@@ -7717,7 +7719,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>144</v>
@@ -7743,7 +7745,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>37226</v>
       </c>
@@ -7773,7 +7775,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
         <v>81</v>
       </c>
@@ -7797,7 +7799,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>37257</v>
       </c>
@@ -7827,7 +7829,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>37288</v>
       </c>
@@ -7857,7 +7859,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>37316</v>
       </c>
@@ -7887,7 +7889,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>37347</v>
       </c>
@@ -7917,7 +7919,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>37377</v>
       </c>
@@ -7943,7 +7945,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>37408</v>
       </c>
@@ -7969,7 +7971,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>37438</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>50</v>
@@ -8026,7 +8028,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>37469</v>
       </c>
@@ -8052,7 +8054,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37500</v>
       </c>
@@ -8078,7 +8080,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>37530</v>
       </c>
@@ -8110,7 +8112,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>153</v>
@@ -8138,7 +8140,7 @@
         <v>37596</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>37561</v>
       </c>
@@ -8164,7 +8166,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>37591</v>
       </c>
@@ -8190,7 +8192,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="47" t="s">
         <v>80</v>
       </c>
@@ -8214,7 +8216,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>37622</v>
       </c>
@@ -8240,7 +8242,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>37653</v>
       </c>
@@ -8266,7 +8268,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>37681</v>
       </c>
@@ -8292,7 +8294,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>37712</v>
       </c>
@@ -8318,7 +8320,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>37742</v>
       </c>
@@ -8344,7 +8346,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>37773</v>
       </c>
@@ -8370,7 +8372,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>37803</v>
       </c>
@@ -8396,7 +8398,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37834</v>
       </c>
@@ -8422,7 +8424,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>37865</v>
       </c>
@@ -8452,7 +8454,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>37895</v>
       </c>
@@ -8482,7 +8484,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>37926</v>
       </c>
@@ -8512,7 +8514,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>157</v>
@@ -8538,7 +8540,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>37956</v>
       </c>
@@ -8564,7 +8566,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="47" t="s">
         <v>79</v>
       </c>
@@ -8588,7 +8590,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>37987</v>
       </c>
@@ -8614,7 +8616,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38018</v>
       </c>
@@ -8640,7 +8642,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>38047</v>
       </c>
@@ -8666,7 +8668,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38078</v>
       </c>
@@ -8692,7 +8694,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38108</v>
       </c>
@@ -8718,7 +8720,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>38139</v>
       </c>
@@ -8748,7 +8750,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38169</v>
       </c>
@@ -8778,7 +8780,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>38200</v>
       </c>
@@ -8808,7 +8810,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38231</v>
       </c>
@@ -8838,7 +8840,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>38261</v>
       </c>
@@ -8868,7 +8870,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>38292</v>
       </c>
@@ -8900,7 +8902,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>163</v>
@@ -8923,7 +8925,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38322</v>
       </c>
@@ -8953,7 +8955,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="47" t="s">
         <v>78</v>
       </c>
@@ -8977,7 +8979,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38353</v>
       </c>
@@ -9007,7 +9009,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>38384</v>
       </c>
@@ -9039,7 +9041,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>166</v>
@@ -9067,7 +9069,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>170</v>
@@ -9093,7 +9095,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>38412</v>
       </c>
@@ -9123,7 +9125,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>38443</v>
       </c>
@@ -9155,7 +9157,7 @@
         <v>38447</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>50</v>
@@ -9183,7 +9185,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>87</v>
@@ -9211,7 +9213,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>172</v>
@@ -9237,7 +9239,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>38473</v>
       </c>
@@ -9267,7 +9269,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>38504</v>
       </c>
@@ -9299,7 +9301,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>102</v>
@@ -9324,7 +9326,7 @@
         <v>38525</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>50</v>
@@ -9349,7 +9351,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>38534</v>
       </c>
@@ -9381,7 +9383,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>178</v>
@@ -9406,7 +9408,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>60</v>
@@ -9431,7 +9433,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38565</v>
       </c>
@@ -9463,7 +9465,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>179</v>
@@ -9491,7 +9493,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>38596</v>
       </c>
@@ -9523,7 +9525,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>38626</v>
       </c>
@@ -9555,7 +9557,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>187</v>
@@ -9581,7 +9583,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>38657</v>
       </c>
@@ -9613,7 +9615,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>38687</v>
       </c>
@@ -9643,7 +9645,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>77</v>
       </c>
@@ -9667,7 +9669,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>38718</v>
       </c>
@@ -9693,7 +9695,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>38749</v>
       </c>
@@ -9719,7 +9721,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>38777</v>
       </c>
@@ -9745,7 +9747,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>38808</v>
       </c>
@@ -9775,7 +9777,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38838</v>
       </c>
@@ -9801,7 +9803,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>38869</v>
       </c>
@@ -9831,7 +9833,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>38899</v>
       </c>
@@ -9857,7 +9859,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>38930</v>
       </c>
@@ -9883,7 +9885,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38961</v>
       </c>
@@ -9913,7 +9915,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>38991</v>
       </c>
@@ -9943,7 +9945,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>39022</v>
       </c>
@@ -9969,7 +9971,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39052</v>
       </c>
@@ -9995,7 +9997,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="47" t="s">
         <v>76</v>
       </c>
@@ -10019,7 +10021,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40" t="s">
         <v>196</v>
       </c>
@@ -10047,7 +10049,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>39173</v>
       </c>
@@ -10079,7 +10081,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>50</v>
@@ -10104,7 +10106,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>102</v>
@@ -10129,7 +10131,7 @@
         <v>39223</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>102</v>
@@ -10154,7 +10156,7 @@
         <v>39227</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>60</v>
@@ -10179,7 +10181,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>198</v>
@@ -10202,7 +10204,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>39203</v>
       </c>
@@ -10232,7 +10234,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39234</v>
       </c>
@@ -10264,7 +10266,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>200</v>
@@ -10287,7 +10289,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39264</v>
       </c>
@@ -10319,7 +10321,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>102</v>
@@ -10344,7 +10346,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>99</v>
@@ -10369,7 +10371,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>201</v>
@@ -10392,7 +10394,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39295</v>
       </c>
@@ -10422,7 +10424,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>202</v>
@@ -10447,7 +10449,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>203</v>
@@ -10470,7 +10472,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>39326</v>
       </c>
@@ -10502,7 +10504,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>60</v>
@@ -10527,7 +10529,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>102</v>
@@ -10552,7 +10554,7 @@
         <v>39345</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>102</v>
@@ -10577,7 +10579,7 @@
         <v>39350</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>112</v>
@@ -10602,7 +10604,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>213</v>
@@ -10625,7 +10627,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>39356</v>
       </c>
@@ -10657,7 +10659,7 @@
         <v>39381</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>214</v>
@@ -10683,7 +10685,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>39387</v>
       </c>
@@ -10715,7 +10717,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>50</v>
@@ -10743,7 +10745,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>215</v>
@@ -10769,7 +10771,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39417</v>
       </c>
@@ -10799,7 +10801,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="47" t="s">
         <v>75</v>
       </c>
@@ -10823,7 +10825,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>39448</v>
       </c>
@@ -10855,7 +10857,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>50</v>
@@ -10883,7 +10885,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -10911,7 +10913,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>217</v>
@@ -10937,7 +10939,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>39479</v>
       </c>
@@ -10969,7 +10971,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>102</v>
@@ -10994,7 +10996,7 @@
         <v>39496</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>218</v>
@@ -11017,7 +11019,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39508</v>
       </c>
@@ -11049,7 +11051,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>223</v>
@@ -11072,7 +11074,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>39539</v>
       </c>
@@ -11102,7 +11104,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>118</v>
@@ -11125,7 +11127,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>39569</v>
       </c>
@@ -11155,7 +11157,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>224</v>
@@ -11181,7 +11183,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>39600</v>
       </c>
@@ -11213,7 +11215,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>102</v>
@@ -11241,7 +11243,7 @@
         <v>39641</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>225</v>
@@ -11267,7 +11269,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>39630</v>
       </c>
@@ -11299,7 +11301,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>226</v>
@@ -11325,7 +11327,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39661</v>
       </c>
@@ -11357,7 +11359,7 @@
         <v>39661</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>102</v>
@@ -11385,7 +11387,7 @@
         <v>39681</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>102</v>
@@ -11413,7 +11415,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>227</v>
@@ -11439,7 +11441,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>39692</v>
       </c>
@@ -11471,7 +11473,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>50</v>
@@ -11499,7 +11501,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>228</v>
@@ -11525,7 +11527,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>39722</v>
       </c>
@@ -11557,7 +11559,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>229</v>
@@ -11583,7 +11585,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>102</v>
@@ -11611,7 +11613,7 @@
         <v>39749</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>243</v>
@@ -11637,7 +11639,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>39753</v>
       </c>
@@ -11667,7 +11669,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>39783</v>
       </c>
@@ -11699,7 +11701,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>87</v>
@@ -11724,7 +11726,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -11746,7 +11748,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="47" t="s">
         <v>74</v>
       </c>
@@ -11770,7 +11772,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>39814</v>
       </c>
@@ -11800,7 +11802,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>102</v>
@@ -11828,7 +11830,7 @@
         <v>39840</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>104</v>
@@ -11856,7 +11858,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>246</v>
@@ -11882,7 +11884,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>39845</v>
       </c>
@@ -11914,7 +11916,7 @@
         <v>39874</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>247</v>
@@ -11940,7 +11942,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39873</v>
       </c>
@@ -11972,7 +11974,7 @@
         <v>39892</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>116</v>
@@ -11998,7 +12000,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>248</v>
@@ -12024,7 +12026,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>102</v>
@@ -12052,7 +12054,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>39904</v>
       </c>
@@ -12082,7 +12084,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>102</v>
@@ -12107,7 +12109,7 @@
         <v>39952</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39934</v>
       </c>
@@ -12139,7 +12141,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>102</v>
@@ -12167,7 +12169,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>250</v>
@@ -12193,7 +12195,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>39965</v>
       </c>
@@ -12225,7 +12227,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>50</v>
@@ -12253,7 +12255,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>251</v>
@@ -12279,7 +12281,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>39995</v>
       </c>
@@ -12311,7 +12313,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>187</v>
@@ -12337,7 +12339,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>102</v>
@@ -12365,7 +12367,7 @@
         <v>39996</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>252</v>
@@ -12391,7 +12393,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>40026</v>
       </c>
@@ -12417,7 +12419,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40057</v>
       </c>
@@ -12447,7 +12449,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>40087</v>
       </c>
@@ -12479,7 +12481,7 @@
         <v>40091</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>102</v>
@@ -12507,7 +12509,7 @@
         <v>40102</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>50</v>
@@ -12535,7 +12537,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>102</v>
@@ -12563,7 +12565,7 @@
         <v>40113</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>262</v>
@@ -12589,7 +12591,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="52"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>40118</v>
       </c>
@@ -12621,7 +12623,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>102</v>
@@ -12649,7 +12651,7 @@
         <v>40140</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>264</v>
@@ -12675,7 +12677,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>40148</v>
       </c>
@@ -12707,7 +12709,7 @@
         <v>40149</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>50</v>
@@ -12735,7 +12737,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>265</v>
@@ -12761,7 +12763,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="47" t="s">
         <v>73</v>
       </c>
@@ -12785,7 +12787,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>40179</v>
       </c>
@@ -12819,7 +12821,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>267</v>
@@ -12845,7 +12847,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40210</v>
       </c>
@@ -12877,7 +12879,7 @@
         <v>40214</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>60</v>
@@ -12905,7 +12907,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>268</v>
@@ -12931,7 +12933,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>40238</v>
       </c>
@@ -12961,7 +12963,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>40269</v>
       </c>
@@ -12993,7 +12995,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>53</v>
@@ -13018,7 +13020,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>273</v>
@@ -13041,7 +13043,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>40299</v>
       </c>
@@ -13071,7 +13073,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>274</v>
@@ -13097,7 +13099,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>40330</v>
       </c>
@@ -13129,7 +13131,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>275</v>
@@ -13155,7 +13157,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>40360</v>
       </c>
@@ -13185,7 +13187,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>40391</v>
       </c>
@@ -13217,7 +13219,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>53</v>
@@ -13245,7 +13247,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>60</v>
@@ -13273,7 +13275,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>276</v>
@@ -13299,7 +13301,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>40422</v>
       </c>
@@ -13329,7 +13331,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>40452</v>
       </c>
@@ -13361,7 +13363,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>278</v>
@@ -13387,7 +13389,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>40483</v>
       </c>
@@ -13417,7 +13419,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>40513</v>
       </c>
@@ -13449,7 +13451,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>50</v>
@@ -13477,7 +13479,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>280</v>
@@ -13503,7 +13505,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="47" t="s">
         <v>72</v>
       </c>
@@ -13527,7 +13529,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>40544</v>
       </c>
@@ -13559,7 +13561,7 @@
         <v>40548</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>290</v>
@@ -13585,7 +13587,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="52"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>40575</v>
       </c>
@@ -13617,7 +13619,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>291</v>
@@ -13643,7 +13645,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>40603</v>
       </c>
@@ -13673,7 +13675,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>292</v>
@@ -13699,7 +13701,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>40634</v>
       </c>
@@ -13731,7 +13733,7 @@
         <v>40646</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>293</v>
@@ -13757,7 +13759,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>40664</v>
       </c>
@@ -13787,7 +13789,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>102</v>
@@ -13815,7 +13817,7 @@
         <v>40688</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>102</v>
@@ -13843,7 +13845,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>294</v>
@@ -13869,7 +13871,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>40695</v>
       </c>
@@ -13901,7 +13903,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>295</v>
@@ -13927,7 +13929,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>40725</v>
       </c>
@@ -13959,7 +13961,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>301</v>
@@ -13985,7 +13987,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>40756</v>
       </c>
@@ -14017,7 +14019,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>102</v>
@@ -14045,7 +14047,7 @@
         <v>40758</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>102</v>
@@ -14073,7 +14075,7 @@
         <v>40773</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>296</v>
@@ -14099,7 +14101,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>40787</v>
       </c>
@@ -14131,7 +14133,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>102</v>
@@ -14159,7 +14161,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>303</v>
@@ -14185,7 +14187,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="53"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>40817</v>
       </c>
@@ -14217,7 +14219,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>304</v>
@@ -14245,7 +14247,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>305</v>
@@ -14271,7 +14273,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40848</v>
       </c>
@@ -14303,7 +14305,7 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>304</v>
@@ -14333,7 +14335,7 @@
         <v>40843</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>306</v>
@@ -14359,7 +14361,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>40878</v>
       </c>
@@ -14391,7 +14393,7 @@
         <v>40889</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>102</v>
@@ -14419,7 +14421,7 @@
         <v>40892</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>50</v>
@@ -14447,7 +14449,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>307</v>
@@ -14473,7 +14475,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="47" t="s">
         <v>71</v>
       </c>
@@ -14497,7 +14499,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>40909</v>
       </c>
@@ -14529,7 +14531,7 @@
         <v>40938</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>309</v>
@@ -14555,7 +14557,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>40940</v>
       </c>
@@ -14587,7 +14589,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>311</v>
@@ -14613,7 +14615,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>40969</v>
       </c>
@@ -14647,7 +14649,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>313</v>
@@ -14673,7 +14675,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>41000</v>
       </c>
@@ -14705,7 +14707,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>314</v>
@@ -14731,7 +14733,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>41030</v>
       </c>
@@ -14763,7 +14765,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>50</v>
@@ -14791,7 +14793,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>116</v>
@@ -14817,7 +14819,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>102</v>
@@ -14845,7 +14847,7 @@
         <v>41054</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>315</v>
@@ -14871,7 +14873,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>41061</v>
       </c>
@@ -14901,7 +14903,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>41091</v>
       </c>
@@ -14933,7 +14935,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>317</v>
@@ -14959,7 +14961,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>41122</v>
       </c>
@@ -14991,7 +14993,7 @@
         <v>41149</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>318</v>
@@ -15017,7 +15019,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41153</v>
       </c>
@@ -15049,7 +15051,7 @@
         <v>41177</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>319</v>
@@ -15075,7 +15077,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>41183</v>
       </c>
@@ -15105,7 +15107,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41214</v>
       </c>
@@ -15137,7 +15139,7 @@
         <v>41226</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>50</v>
@@ -15165,7 +15167,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>321</v>
@@ -15191,7 +15193,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>41244</v>
       </c>
@@ -15223,7 +15225,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>266</v>
@@ -15253,7 +15255,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="47" t="s">
         <v>70</v>
       </c>
@@ -15277,7 +15279,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>41275</v>
       </c>
@@ -15309,7 +15311,7 @@
         <v>41297</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>330</v>
@@ -15335,7 +15337,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="52"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>41306</v>
       </c>
@@ -15369,7 +15371,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>304</v>
@@ -15397,7 +15399,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>331</v>
@@ -15423,7 +15425,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>102</v>
@@ -15451,7 +15453,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>41334</v>
       </c>
@@ -15481,7 +15483,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>41365</v>
       </c>
@@ -15511,7 +15513,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>41395</v>
       </c>
@@ -15541,7 +15543,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>333</v>
@@ -15567,7 +15569,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>41426</v>
       </c>
@@ -15597,7 +15599,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>41456</v>
       </c>
@@ -15627,7 +15629,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>41487</v>
       </c>
@@ -15659,7 +15661,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>336</v>
@@ -15685,7 +15687,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>41518</v>
       </c>
@@ -15717,7 +15719,7 @@
         <v>41540</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>337</v>
@@ -15743,7 +15745,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>41548</v>
       </c>
@@ -15773,7 +15775,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>41579</v>
       </c>
@@ -15803,7 +15805,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>41609</v>
       </c>
@@ -15837,7 +15839,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>343</v>
@@ -15863,7 +15865,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="47" t="s">
         <v>69</v>
       </c>
@@ -15887,7 +15889,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>41640</v>
       </c>
@@ -15921,7 +15923,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>344</v>
@@ -15947,7 +15949,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>41671</v>
       </c>
@@ -15977,7 +15979,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>41699</v>
       </c>
@@ -16009,7 +16011,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>346</v>
@@ -16035,7 +16037,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>41730</v>
       </c>
@@ -16065,7 +16067,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>41760</v>
       </c>
@@ -16099,7 +16101,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>312</v>
@@ -16129,7 +16131,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>349</v>
@@ -16155,7 +16157,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>41791</v>
       </c>
@@ -16185,7 +16187,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41821</v>
       </c>
@@ -16215,7 +16217,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>41852</v>
       </c>
@@ -16247,7 +16249,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>358</v>
@@ -16277,7 +16279,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>350</v>
@@ -16303,7 +16305,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>41883</v>
       </c>
@@ -16337,7 +16339,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>160</v>
@@ -16363,7 +16365,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>41913</v>
       </c>
@@ -16393,7 +16395,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41944</v>
       </c>
@@ -16423,7 +16425,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>41974</v>
       </c>
@@ -16453,7 +16455,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="47" t="s">
         <v>68</v>
       </c>
@@ -16477,7 +16479,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>42005</v>
       </c>
@@ -16507,7 +16509,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>42036</v>
       </c>
@@ -16537,7 +16539,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>42064</v>
       </c>
@@ -16567,7 +16569,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>364</v>
@@ -16593,7 +16595,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>42095</v>
       </c>
@@ -16623,7 +16625,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>42125</v>
       </c>
@@ -16655,7 +16657,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>366</v>
@@ -16683,7 +16685,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>42156</v>
       </c>
@@ -16713,7 +16715,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>229</v>
@@ -16739,7 +16741,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>367</v>
@@ -16765,7 +16767,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>42186</v>
       </c>
@@ -16795,7 +16797,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42217</v>
       </c>
@@ -16827,7 +16829,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>369</v>
@@ -16853,7 +16855,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42248</v>
       </c>
@@ -16883,7 +16885,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>42278</v>
       </c>
@@ -16913,7 +16915,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>42309</v>
       </c>
@@ -16943,7 +16945,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>42339</v>
       </c>
@@ -16973,7 +16975,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="47" t="s">
         <v>67</v>
       </c>
@@ -16997,7 +16999,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>42370</v>
       </c>
@@ -17027,7 +17029,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>42401</v>
       </c>
@@ -17057,7 +17059,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>42430</v>
       </c>
@@ -17087,7 +17089,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>42461</v>
       </c>
@@ -17117,7 +17119,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>42491</v>
       </c>
@@ -17147,7 +17149,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>366</v>
@@ -17173,7 +17175,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>42522</v>
       </c>
@@ -17203,7 +17205,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>42552</v>
       </c>
@@ -17233,7 +17235,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>42583</v>
       </c>
@@ -17263,7 +17265,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>42614</v>
       </c>
@@ -17295,7 +17297,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>102</v>
@@ -17323,7 +17325,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>385</v>
@@ -17351,7 +17353,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>386</v>
@@ -17377,7 +17379,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>42644</v>
       </c>
@@ -17407,7 +17409,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>42675</v>
       </c>
@@ -17439,7 +17441,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>50</v>
@@ -17464,7 +17466,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>388</v>
@@ -17487,7 +17489,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>42705</v>
       </c>
@@ -17517,7 +17519,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="47" t="s">
         <v>66</v>
       </c>
@@ -17541,7 +17543,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>42736</v>
       </c>
@@ -17573,7 +17575,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>229</v>
@@ -17599,7 +17601,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>42767</v>
       </c>
@@ -17629,7 +17631,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>42795</v>
       </c>
@@ -17659,7 +17661,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>42826</v>
       </c>
@@ -17691,7 +17693,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>100</v>
@@ -17717,7 +17719,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>42856</v>
       </c>
@@ -17747,7 +17749,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>102</v>
@@ -17775,7 +17777,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>398</v>
@@ -17801,7 +17803,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>42887</v>
       </c>
@@ -17831,7 +17833,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>42917</v>
       </c>
@@ -17857,7 +17859,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>42948</v>
       </c>
@@ -17887,7 +17889,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>42979</v>
       </c>
@@ -17919,7 +17921,7 @@
         <v>42985</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>401</v>
@@ -17945,7 +17947,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43009</v>
       </c>
@@ -17977,7 +17979,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>110</v>
@@ -18005,7 +18007,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>50</v>
@@ -18033,7 +18035,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>50</v>
@@ -18061,7 +18063,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>102</v>
@@ -18089,7 +18091,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>408</v>
@@ -18115,7 +18117,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="52"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43040</v>
       </c>
@@ -18141,7 +18143,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43070</v>
       </c>
@@ -18173,7 +18175,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>50</v>
@@ -18201,7 +18203,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -18223,7 +18225,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="47" t="s">
         <v>65</v>
       </c>
@@ -18247,7 +18249,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>43101</v>
       </c>
@@ -18279,7 +18281,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>90</v>
@@ -18305,7 +18307,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>43132</v>
       </c>
@@ -18331,7 +18333,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43160</v>
       </c>
@@ -18363,7 +18365,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>43191</v>
       </c>
@@ -18389,7 +18391,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43221</v>
       </c>
@@ -18421,7 +18423,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43252</v>
       </c>
@@ -18447,7 +18449,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43282</v>
       </c>
@@ -18473,7 +18475,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43313</v>
       </c>
@@ -18499,7 +18501,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>43344</v>
       </c>
@@ -18525,7 +18527,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>43374</v>
       </c>
@@ -18557,7 +18559,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>310</v>
@@ -18582,7 +18584,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>43405</v>
       </c>
@@ -18608,7 +18610,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>43435</v>
       </c>
@@ -18640,7 +18642,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>92</v>
@@ -18663,7 +18665,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="47" t="s">
         <v>64</v>
       </c>
@@ -18687,7 +18689,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43466</v>
       </c>
@@ -18713,7 +18715,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>43497</v>
       </c>
@@ -18745,7 +18747,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43525</v>
       </c>
@@ -18777,7 +18779,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43556</v>
       </c>
@@ -18803,7 +18805,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>43586</v>
       </c>
@@ -18833,7 +18835,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>60</v>
@@ -18841,7 +18843,7 @@
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
       <c r="E527" s="9">
-        <f t="shared" ref="E527:E587" si="16">SUM(C527,E526)-D527</f>
+        <f t="shared" ref="E527:E590" si="16">SUM(C527,E526)-D527</f>
         <v>-32.384999999999991</v>
       </c>
       <c r="F527" s="20"/>
@@ -18850,7 +18852,7 @@
         <v>3</v>
       </c>
       <c r="I527" s="9">
-        <f t="shared" ref="I527:I586" si="17">SUM(G527,I526)-H527</f>
+        <f t="shared" ref="I527:I590" si="17">SUM(G527,I526)-H527</f>
         <v>10.625</v>
       </c>
       <c r="J527" s="11"/>
@@ -18858,7 +18860,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>43617</v>
       </c>
@@ -18884,7 +18886,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>43647</v>
       </c>
@@ -18910,7 +18912,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>43678</v>
       </c>
@@ -18942,7 +18944,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43709</v>
       </c>
@@ -18968,7 +18970,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>43739</v>
       </c>
@@ -19000,7 +19002,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>50</v>
@@ -19025,7 +19027,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>43770</v>
       </c>
@@ -19057,7 +19059,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>43800</v>
       </c>
@@ -19083,7 +19085,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="47" t="s">
         <v>63</v>
       </c>
@@ -19107,7 +19109,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>43831</v>
       </c>
@@ -19137,7 +19139,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>43862</v>
       </c>
@@ -19163,7 +19165,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>43891</v>
       </c>
@@ -19189,7 +19191,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>43922</v>
       </c>
@@ -19215,7 +19217,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>43952</v>
       </c>
@@ -19241,7 +19243,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>43983</v>
       </c>
@@ -19267,7 +19269,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44013</v>
       </c>
@@ -19299,7 +19301,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44044</v>
       </c>
@@ -19325,7 +19327,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44075</v>
       </c>
@@ -19351,7 +19353,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44105</v>
       </c>
@@ -19377,7 +19379,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44136</v>
       </c>
@@ -19403,7 +19405,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44166</v>
       </c>
@@ -19433,7 +19435,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="47" t="s">
         <v>426</v>
       </c>
@@ -19457,7 +19459,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44197</v>
       </c>
@@ -19483,7 +19485,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44228</v>
       </c>
@@ -19509,7 +19511,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>44256</v>
       </c>
@@ -19535,7 +19537,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>44287</v>
       </c>
@@ -19561,7 +19563,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44317</v>
       </c>
@@ -19587,7 +19589,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44348</v>
       </c>
@@ -19613,7 +19615,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>44378</v>
       </c>
@@ -19639,7 +19641,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>44409</v>
       </c>
@@ -19671,7 +19673,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44440</v>
       </c>
@@ -19697,7 +19699,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>44470</v>
       </c>
@@ -19723,7 +19725,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44501</v>
       </c>
@@ -19749,7 +19751,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>44531</v>
       </c>
@@ -19779,7 +19781,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="47" t="s">
         <v>430</v>
       </c>
@@ -19803,7 +19805,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>44562</v>
       </c>
@@ -19829,7 +19831,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>44593</v>
       </c>
@@ -19855,7 +19857,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>44621</v>
       </c>
@@ -19881,7 +19883,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>44652</v>
       </c>
@@ -19907,7 +19909,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>44682</v>
       </c>
@@ -19933,7 +19935,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>44713</v>
       </c>
@@ -19959,7 +19961,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>44743</v>
       </c>
@@ -19985,7 +19987,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>44774</v>
       </c>
@@ -20011,7 +20013,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>44805</v>
       </c>
@@ -20037,7 +20039,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>44835</v>
       </c>
@@ -20063,7 +20065,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>44866</v>
       </c>
@@ -20089,7 +20091,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>44896</v>
       </c>
@@ -20119,7 +20121,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="47" t="s">
         <v>429</v>
       </c>
@@ -20143,7 +20145,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>44927</v>
       </c>
@@ -20169,7 +20171,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>44958</v>
       </c>
@@ -20195,7 +20197,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>44986</v>
       </c>
@@ -20221,7 +20223,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>45017</v>
       </c>
@@ -20247,7 +20249,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>45047</v>
       </c>
@@ -20273,7 +20275,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>45078</v>
       </c>
@@ -20299,7 +20301,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>45108</v>
       </c>
@@ -20325,7 +20327,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>45139</v>
       </c>
@@ -20351,7 +20353,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>45170</v>
       </c>
@@ -20377,7 +20379,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>45200</v>
       </c>
@@ -20403,7 +20405,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>45231</v>
       </c>
@@ -20435,7 +20437,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>433</v>
@@ -20454,13 +20456,16 @@
         <v/>
       </c>
       <c r="H587" s="39"/>
-      <c r="I587" s="9"/>
+      <c r="I587" s="9">
+        <f t="shared" si="17"/>
+        <v>46.125</v>
+      </c>
       <c r="J587" s="11"/>
       <c r="K587" s="52" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>45261</v>
       </c>
@@ -20469,56 +20474,80 @@
         <v>1.25</v>
       </c>
       <c r="D588" s="39"/>
-      <c r="E588" s="9"/>
+      <c r="E588" s="9">
+        <f t="shared" si="16"/>
+        <v>11.365000000000009</v>
+      </c>
       <c r="F588" s="20"/>
       <c r="G588" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H588" s="39"/>
-      <c r="I588" s="9"/>
+      <c r="I588" s="9">
+        <f t="shared" si="17"/>
+        <v>47.375</v>
+      </c>
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="47" t="s">
         <v>431</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
       <c r="D589" s="39"/>
-      <c r="E589" s="9"/>
+      <c r="E589" s="9">
+        <f t="shared" si="16"/>
+        <v>11.365000000000009</v>
+      </c>
       <c r="F589" s="20"/>
       <c r="G589" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H589" s="39"/>
-      <c r="I589" s="9"/>
+      <c r="I589" s="9">
+        <f t="shared" si="17"/>
+        <v>47.375</v>
+      </c>
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>45322</v>
       </c>
-      <c r="B590" s="20"/>
+      <c r="B590" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C590" s="13">
         <v>1.25</v>
       </c>
       <c r="D590" s="39"/>
-      <c r="E590" s="9"/>
+      <c r="E590" s="9">
+        <f t="shared" si="16"/>
+        <v>12.615000000000009</v>
+      </c>
       <c r="F590" s="20"/>
       <c r="G590" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H590" s="39"/>
-      <c r="I590" s="9"/>
+      <c r="H590" s="39">
+        <v>3</v>
+      </c>
+      <c r="I590" s="9">
+        <f t="shared" si="17"/>
+        <v>45.625</v>
+      </c>
       <c r="J590" s="11"/>
-      <c r="K590" s="20"/>
-    </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K590" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="54">
         <v>45351</v>
       </c>
@@ -20542,19 +20571,19 @@
         <v>438</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="54"/>
       <c r="B592" s="15"/>
       <c r="C592" s="41"/>
       <c r="D592" s="42"/>
-      <c r="E592" s="67"/>
+      <c r="E592" s="55"/>
       <c r="F592" s="15"/>
       <c r="G592" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H592" s="42"/>
-      <c r="I592" s="67"/>
+      <c r="I592" s="55"/>
       <c r="J592" s="12"/>
       <c r="K592" s="15"/>
     </row>
@@ -20573,10 +20602,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20599,7 +20628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20607,34 +20636,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="65" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20663,7 +20692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -20689,17 +20718,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20713,14 +20742,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20747,7 +20776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20773,7 +20802,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20799,7 +20828,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20825,7 +20854,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20851,7 +20880,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20877,7 +20906,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20903,7 +20932,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20929,7 +20958,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20949,7 +20978,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20969,7 +20998,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20989,7 +21018,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21010,7 +21039,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21031,7 +21060,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21052,7 +21081,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21073,7 +21102,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21094,7 +21123,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21115,7 +21144,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21136,7 +21165,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21157,7 +21186,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21178,7 +21207,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21199,7 +21228,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21220,7 +21249,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21241,7 +21270,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21262,7 +21291,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21283,7 +21312,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21304,7 +21333,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21325,7 +21354,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21346,7 +21375,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21367,7 +21396,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21388,7 +21417,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21409,7 +21438,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21418,7 +21447,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21427,7 +21456,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21436,7 +21465,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21445,7 +21474,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21454,7 +21483,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21463,7 +21492,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21472,7 +21501,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21481,7 +21510,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21490,7 +21519,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21499,7 +21528,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21508,7 +21537,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21517,7 +21546,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21526,7 +21555,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21535,7 +21564,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21544,7 +21573,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21553,7 +21582,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21562,7 +21591,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21571,7 +21600,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21580,7 +21609,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21589,7 +21618,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21598,7 +21627,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21607,7 +21636,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21616,7 +21645,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21625,7 +21654,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21634,7 +21663,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21643,7 +21672,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21652,7 +21681,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21661,7 +21690,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21670,7 +21699,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
